--- a/Time sheet/MCI-Timetsheet(Jason-week-5).xlsx
+++ b/Time sheet/MCI-Timetsheet(Jason-week-5).xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Desktop/MCI_2021/MCI_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Desktop/MCI_2021/MCI_Project/Team-024/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5475E3-FC6F-964C-925B-945CA89D100A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2D623C-9946-7943-85EA-515010369423}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,7 +755,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="E12" s="8">
         <f>SUM(E6:E11)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
